--- a/app-backend/public/template/Template_BAST.xlsx
+++ b/app-backend/public/template/Template_BAST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sachr\AppData\Local\Temp\fz3temp-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525C97AB-8569-4543-B0C7-CEB35B735B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7166AB-9E88-4CE3-A945-939B4E386FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1063" yWindow="1063" windowWidth="16457" windowHeight="9446" xr2:uid="{C2F065FE-F39F-4198-9B32-BDB605DA04E2}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{C2F065FE-F39F-4198-9B32-BDB605DA04E2}"/>
   </bookViews>
   <sheets>
     <sheet name="BAST" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>List Payment</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Payment</t>
   </si>
   <si>
-    <t>Tanggal</t>
-  </si>
-  <si>
     <t>Payment in percent (%)</t>
   </si>
   <si>
@@ -64,6 +61,22 @@
   </si>
   <si>
     <t>Invoice Number</t>
+  </si>
+  <si>
+    <t>Tanggal 
+(YYYY-MM-DD)</t>
+  </si>
+  <si>
+    <t>0001/contoh/xxxx</t>
+  </si>
+  <si>
+    <t>DP</t>
+  </si>
+  <si>
+    <t>2024-09-20</t>
+  </si>
+  <si>
+    <t>0001/xxxx</t>
   </si>
 </sst>
 </file>
@@ -183,7 +196,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -208,11 +221,14 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -529,19 +545,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C9C8E0-2DF6-4865-9D2E-3798A2521414}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="10.3828125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.69140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.69140625" style="5" customWidth="1"/>
     <col min="4" max="4" width="18.765625" customWidth="1"/>
     <col min="5" max="5" width="9.53515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="12.69140625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.15234375" style="6" customWidth="1"/>
     <col min="7" max="7" width="9.23046875" style="5"/>
     <col min="8" max="8" width="14.07421875" bestFit="1" customWidth="1"/>
   </cols>
@@ -560,20 +576,47 @@
         <v>5</v>
       </c>
       <c r="E1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>9</v>
-      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="5">
+        <v>7150000</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="5">
+        <v>15</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5">
+        <v>100</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F7" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -611,7 +654,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D5" s="11"/>
+      <c r="D5" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
